--- a/biology/Zoologie/Animal_en_serviette/Animal_en_serviette.xlsx
+++ b/biology/Zoologie/Animal_en_serviette/Animal_en_serviette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un animal en serviette est un pliage réalisé en serviettes de toilette destiné à leur faire prendre la forme d'un animal. Cette pratique est répandue sur les navires de croisière ; leur conception est généralement attribuée aux navires à la Carnival Cruise Lines bien que l'origine en soit incertaine.
 </t>
@@ -511,7 +523,9 @@
           <t>Technique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'animal est réalisé lors du passage du service de chambre et généralement placé sur le lit, parfois sur un fauteuil, suspendu, etc. afin que le locataire de la chambre le découvre à son retour. Certains accessoires de la chambre ou des affaires laissées par l'occupant de la chambre (chaussures, lunettes, etc) peuvent être employés pour parfaire la mise en scène.
 </t>
